--- a/results/model2/model2_df_results.xlsx
+++ b/results/model2/model2_df_results.xlsx
@@ -35,7 +35,7 @@
       <color rgb="00F1F1F1"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill/>
     </fill>
@@ -44,12 +44,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0053B466"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0005712F"/>
+        <fgColor rgb="00D7EFD1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0094D390"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007AC77B"/>
       </patternFill>
     </fill>
     <fill>
@@ -59,22 +64,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00157F3B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0060BA6C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B1E0AB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E4F5DF"/>
+        <fgColor rgb="0050B264"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009CD797"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D3EECD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EBF7E7"/>
       </patternFill>
     </fill>
     <fill>
@@ -84,32 +89,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0098D594"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00006D2C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0016803C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0065BD6F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B7E2B1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E5F5E0"/>
+        <fgColor rgb="00CBEAC4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005EB96B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0038A156"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003EA75A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009BD696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ECF8E8"/>
       </patternFill>
     </fill>
   </fills>
@@ -132,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -143,43 +148,46 @@
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="10" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -479,7 +487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,13 +525,13 @@
         <v>-4</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-2.284</v>
+        <v>-3.488</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.494</v>
+        <v>0.7779</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.529</v>
+        <v>1.8356</v>
       </c>
     </row>
     <row r="3">
@@ -534,13 +542,13 @@
         <v>-3</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.478</v>
+        <v>-0.7256</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>0.3</v>
+        <v>0.6067</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.703</v>
+        <v>1.2266</v>
       </c>
     </row>
     <row r="4">
@@ -551,13 +559,13 @@
         <v>-2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.867</v>
+        <v>0.0519</v>
       </c>
       <c r="D4" s="7" t="n">
-        <v>0.202</v>
-      </c>
-      <c r="E4" s="7" t="n">
-        <v>0.484</v>
+        <v>0.5546</v>
+      </c>
+      <c r="E4" s="8" t="n">
+        <v>1.016</v>
       </c>
     </row>
     <row r="5">
@@ -568,13 +576,13 @@
         <v>-1</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.757</v>
-      </c>
-      <c r="D5" s="8" t="n">
-        <v>0.341</v>
+        <v>0.9405</v>
+      </c>
+      <c r="D5" s="9" t="n">
+        <v>0.1672</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>0.843</v>
+        <v>0.3642</v>
       </c>
     </row>
     <row r="6">
@@ -585,13 +593,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6051</v>
       </c>
       <c r="D6" s="10" t="n">
-        <v>0.514</v>
+        <v>0.4767</v>
       </c>
       <c r="E6" s="11" t="n">
-        <v>1.293</v>
+        <v>1.0622</v>
       </c>
     </row>
     <row r="7">
@@ -602,13 +610,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.253</v>
+        <v>0.3</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>0.672</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>1.701</v>
+        <v>1.5312</v>
       </c>
     </row>
     <row r="8">
@@ -619,13 +627,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-0.037</v>
+        <v>-0.0358</v>
       </c>
       <c r="D8" s="14" t="n">
-        <v>0.805</v>
-      </c>
-      <c r="E8" s="15" t="n">
-        <v>2.012</v>
+        <v>0.7667</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>1.9297</v>
       </c>
     </row>
     <row r="9">
@@ -636,13 +644,30 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-0.232</v>
-      </c>
-      <c r="D9" s="16" t="n">
-        <v>0.895</v>
+        <v>-0.2535</v>
+      </c>
+      <c r="D9" s="15" t="n">
+        <v>0.8498</v>
       </c>
       <c r="E9" s="16" t="n">
-        <v>2.232</v>
+        <v>2.1424</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>-0.4347</v>
+      </c>
+      <c r="D10" s="17" t="n">
+        <v>0.9159</v>
+      </c>
+      <c r="E10" s="17" t="n">
+        <v>2.2902</v>
       </c>
     </row>
   </sheetData>

--- a/results/model2/model2_df_results.xlsx
+++ b/results/model2/model2_df_results.xlsx
@@ -35,7 +35,7 @@
       <color rgb="00F1F1F1"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill/>
     </fill>
@@ -44,12 +44,52 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D7EFD1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0094D390"/>
+        <fgColor rgb="00F6FCF4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B5E1AE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006EC173"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000441B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0037A055"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008DD08A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CAEAC3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E5F5E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F7FCF5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F5FBF3"/>
       </patternFill>
     </fill>
     <fill>
@@ -59,12 +99,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000441B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0050B264"/>
+        <fgColor rgb="00369F54"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002C944C"/>
       </patternFill>
     </fill>
     <fill>
@@ -74,47 +114,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D3EECD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EBF7E7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F7FCF5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CBEAC4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="005EB96B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0038A156"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003EA75A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009BD696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ECF8E8"/>
+        <fgColor rgb="00D4EECE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E9F7E5"/>
       </patternFill>
     </fill>
   </fills>
@@ -137,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -181,10 +186,13 @@
     <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="9" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="10" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -525,13 +533,13 @@
         <v>-4</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-3.488</v>
+        <v>-5.583</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.7779</v>
+        <v>0.9422</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.8356</v>
+        <v>2.3053</v>
       </c>
     </row>
     <row r="3">
@@ -542,13 +550,13 @@
         <v>-3</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-0.7256</v>
+        <v>-2.0117</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>0.6067</v>
+        <v>0.8015</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>1.2266</v>
+        <v>1.697</v>
       </c>
     </row>
     <row r="4">
@@ -559,13 +567,13 @@
         <v>-2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.0519</v>
+        <v>-0.529</v>
       </c>
       <c r="D4" s="7" t="n">
-        <v>0.5546</v>
+        <v>0.7043</v>
       </c>
       <c r="E4" s="8" t="n">
-        <v>1.016</v>
+        <v>1.4554</v>
       </c>
     </row>
     <row r="5">
@@ -576,13 +584,13 @@
         <v>-1</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.9405</v>
+        <v>0.5202</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>0.1672</v>
+        <v>0.4748</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>0.3642</v>
+        <v>1.0281</v>
       </c>
     </row>
     <row r="6">
@@ -593,13 +601,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.6051</v>
+        <v>0.3059</v>
       </c>
       <c r="D6" s="10" t="n">
-        <v>0.4767</v>
+        <v>0.632</v>
       </c>
       <c r="E6" s="11" t="n">
-        <v>1.0622</v>
+        <v>1.4002</v>
       </c>
     </row>
     <row r="7">
@@ -610,13 +618,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.3</v>
+        <v>0.0128</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>0.6254999999999999</v>
+        <v>0.7428</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>1.5312</v>
+        <v>1.8204</v>
       </c>
     </row>
     <row r="8">
@@ -627,13 +635,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-0.0358</v>
+        <v>-0.2273</v>
       </c>
       <c r="D8" s="14" t="n">
-        <v>0.7667</v>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>1.9297</v>
+        <v>0.8346</v>
+      </c>
+      <c r="E8" s="15" t="n">
+        <v>2.0663</v>
       </c>
     </row>
     <row r="9">
@@ -644,13 +652,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-0.2535</v>
-      </c>
-      <c r="D9" s="15" t="n">
-        <v>0.8498</v>
-      </c>
-      <c r="E9" s="16" t="n">
-        <v>2.1424</v>
+        <v>-0.3744</v>
+      </c>
+      <c r="D9" s="16" t="n">
+        <v>0.8899</v>
+      </c>
+      <c r="E9" s="17" t="n">
+        <v>2.1959</v>
       </c>
     </row>
     <row r="10">
@@ -661,13 +669,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-0.4347</v>
-      </c>
-      <c r="D10" s="17" t="n">
-        <v>0.9159</v>
-      </c>
-      <c r="E10" s="17" t="n">
-        <v>2.2902</v>
+        <v>-0.5355</v>
+      </c>
+      <c r="D10" s="18" t="n">
+        <v>0.9475</v>
+      </c>
+      <c r="E10" s="18" t="n">
+        <v>2.3218</v>
       </c>
     </row>
   </sheetData>

--- a/results/model2/model2_df_results.xlsx
+++ b/results/model2/model2_df_results.xlsx
@@ -35,7 +35,7 @@
       <color rgb="00F1F1F1"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill/>
     </fill>
@@ -44,17 +44,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F6FCF4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B5E1AE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006EC173"/>
+        <fgColor rgb="00EEF8EA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B4E1AD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008ACE88"/>
       </patternFill>
     </fill>
     <fill>
@@ -64,7 +64,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0037A055"/>
+        <fgColor rgb="003FA95C"/>
       </patternFill>
     </fill>
     <fill>
@@ -74,12 +74,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CAEAC3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E5F5E1"/>
+        <fgColor rgb="00CCEBC6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E7F6E3"/>
       </patternFill>
     </fill>
     <fill>
@@ -89,32 +89,27 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F5FBF3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007AC77B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00369F54"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002C944C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009CD797"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D4EECE"/>
+        <fgColor rgb="00E6F5E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0078C679"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003DA65A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00349D53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D0EDCA"/>
       </patternFill>
     </fill>
     <fill>
@@ -142,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -180,19 +175,16 @@
     <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="15" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="16" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="10" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -533,13 +525,13 @@
         <v>-4</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-5.583</v>
+        <v>-4.5203</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.9422</v>
+        <v>0.8628</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.3053</v>
+        <v>2.056</v>
       </c>
     </row>
     <row r="3">
@@ -550,13 +542,13 @@
         <v>-3</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-2.0117</v>
+        <v>-1.2894</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>0.8015</v>
+        <v>0.6988</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>1.697</v>
+        <v>1.4257</v>
       </c>
     </row>
     <row r="4">
@@ -567,13 +559,13 @@
         <v>-2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-0.529</v>
+        <v>-0.1801</v>
       </c>
       <c r="D4" s="7" t="n">
-        <v>0.7043</v>
+        <v>0.6187</v>
       </c>
       <c r="E4" s="8" t="n">
-        <v>1.4554</v>
+        <v>1.1665</v>
       </c>
     </row>
     <row r="5">
@@ -584,13 +576,13 @@
         <v>-1</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.5202</v>
+        <v>0.8635</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>0.4748</v>
+        <v>0.2533</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>1.0281</v>
+        <v>0.5538</v>
       </c>
     </row>
     <row r="6">
@@ -601,13 +593,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.3059</v>
+        <v>0.5757</v>
       </c>
       <c r="D6" s="10" t="n">
-        <v>0.632</v>
+        <v>0.4941</v>
       </c>
       <c r="E6" s="11" t="n">
-        <v>1.4002</v>
+        <v>1.1011</v>
       </c>
     </row>
     <row r="7">
@@ -618,13 +610,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.0128</v>
+        <v>0.3073</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>0.7428</v>
-      </c>
-      <c r="E7" s="13" t="n">
-        <v>1.8204</v>
+        <v>0.6222</v>
+      </c>
+      <c r="E7" s="12" t="n">
+        <v>1.5247</v>
       </c>
     </row>
     <row r="8">
@@ -635,13 +627,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-0.2273</v>
-      </c>
-      <c r="D8" s="14" t="n">
-        <v>0.8346</v>
-      </c>
-      <c r="E8" s="15" t="n">
-        <v>2.0663</v>
+        <v>-0.0029</v>
+      </c>
+      <c r="D8" s="13" t="n">
+        <v>0.7544</v>
+      </c>
+      <c r="E8" s="14" t="n">
+        <v>1.896</v>
       </c>
     </row>
     <row r="9">
@@ -652,13 +644,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-0.3744</v>
-      </c>
-      <c r="D9" s="16" t="n">
-        <v>0.8899</v>
-      </c>
-      <c r="E9" s="17" t="n">
-        <v>2.1959</v>
+        <v>-0.2003</v>
+      </c>
+      <c r="D9" s="15" t="n">
+        <v>0.8316</v>
+      </c>
+      <c r="E9" s="16" t="n">
+        <v>2.0918</v>
       </c>
     </row>
     <row r="10">
@@ -669,13 +661,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-0.5355</v>
-      </c>
-      <c r="D10" s="18" t="n">
-        <v>0.9475</v>
-      </c>
-      <c r="E10" s="18" t="n">
-        <v>2.3218</v>
+        <v>-0.3978</v>
+      </c>
+      <c r="D10" s="17" t="n">
+        <v>0.904</v>
+      </c>
+      <c r="E10" s="17" t="n">
+        <v>2.259</v>
       </c>
     </row>
   </sheetData>

--- a/results/model2/model2_df_results.xlsx
+++ b/results/model2/model2_df_results.xlsx
@@ -35,7 +35,7 @@
       <color rgb="00F1F1F1"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill/>
     </fill>
@@ -44,17 +44,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EEF8EA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B4E1AD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008ACE88"/>
+        <fgColor rgb="00F7FCF5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A4DA9E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0062BB6D"/>
       </patternFill>
     </fill>
     <fill>
@@ -64,57 +64,62 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="003FA95C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008DD08A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CCEBC6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E7F6E3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F7FCF5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E6F5E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0078C679"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003DA65A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00349D53"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D0EDCA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E9F7E5"/>
+        <fgColor rgb="00127C39"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00339C52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0055B567"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0058B668"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0079C67A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0052B365"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002C944C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00077331"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0084CC83"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0098D594"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008BCF89"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0095D391"/>
       </patternFill>
     </fill>
   </fills>
@@ -137,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -148,33 +153,33 @@
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="11" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="12" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="14" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -188,6 +193,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="10" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -525,13 +533,13 @@
         <v>-4</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-4.5203</v>
+        <v>-12.9743</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.8628</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>2.056</v>
+        <v>1.3727</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>3.4134</v>
       </c>
     </row>
     <row r="3">
@@ -542,13 +550,13 @@
         <v>-3</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-1.2894</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>0.6988</v>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>1.4257</v>
+        <v>-6.204</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>1.2395</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>2.6942</v>
       </c>
     </row>
     <row r="4">
@@ -559,13 +567,13 @@
         <v>-2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-0.1801</v>
-      </c>
-      <c r="D4" s="7" t="n">
-        <v>0.6187</v>
-      </c>
-      <c r="E4" s="8" t="n">
-        <v>1.1665</v>
+        <v>-3.2452</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>1.1736</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>2.537</v>
       </c>
     </row>
     <row r="5">
@@ -576,13 +584,13 @@
         <v>-1</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.8635</v>
-      </c>
-      <c r="D5" s="9" t="n">
-        <v>0.2533</v>
-      </c>
-      <c r="E5" s="9" t="n">
-        <v>0.5538</v>
+        <v>-1.1614</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>1.0078</v>
+      </c>
+      <c r="E5" s="8" t="n">
+        <v>2.1834</v>
       </c>
     </row>
     <row r="6">
@@ -593,13 +601,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.5757</v>
-      </c>
-      <c r="D6" s="10" t="n">
-        <v>0.4941</v>
-      </c>
-      <c r="E6" s="11" t="n">
-        <v>1.1011</v>
+        <v>-1.0167</v>
+      </c>
+      <c r="D6" s="9" t="n">
+        <v>1.0774</v>
+      </c>
+      <c r="E6" s="10" t="n">
+        <v>2.3707</v>
       </c>
     </row>
     <row r="7">
@@ -610,13 +618,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.3073</v>
-      </c>
-      <c r="D7" s="12" t="n">
-        <v>0.6222</v>
+        <v>-1.2619</v>
+      </c>
+      <c r="D7" s="11" t="n">
+        <v>1.1244</v>
       </c>
       <c r="E7" s="12" t="n">
-        <v>1.5247</v>
+        <v>2.8553</v>
       </c>
     </row>
     <row r="8">
@@ -627,13 +635,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-0.0029</v>
+        <v>-1.3815</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>0.7544</v>
+        <v>1.1626</v>
       </c>
       <c r="E8" s="14" t="n">
-        <v>1.896</v>
+        <v>2.9188</v>
       </c>
     </row>
     <row r="9">
@@ -644,13 +652,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-0.2003</v>
+        <v>-1.3579</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.8316</v>
+        <v>1.1655</v>
       </c>
       <c r="E9" s="16" t="n">
-        <v>2.0918</v>
+        <v>2.8769</v>
       </c>
     </row>
     <row r="10">
@@ -661,13 +669,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-0.3978</v>
+        <v>-1.4435</v>
       </c>
       <c r="D10" s="17" t="n">
-        <v>0.904</v>
-      </c>
-      <c r="E10" s="17" t="n">
-        <v>2.259</v>
+        <v>1.1953</v>
+      </c>
+      <c r="E10" s="18" t="n">
+        <v>2.9102</v>
       </c>
     </row>
   </sheetData>

--- a/results/model2/model2_df_results.xlsx
+++ b/results/model2/model2_df_results.xlsx
@@ -35,7 +35,7 @@
       <color rgb="00F1F1F1"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill/>
     </fill>
@@ -49,12 +49,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00A4DA9E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0062BB6D"/>
+        <fgColor rgb="00BAE3B3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007FC97F"/>
       </patternFill>
     </fill>
     <fill>
@@ -64,62 +64,57 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00127C39"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00339C52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0055B567"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0058B668"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0079C67A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0052B365"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002C944C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00077331"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0084CC83"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0098D594"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008BCF89"/>
+        <fgColor rgb="0039A257"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008ACE88"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CAEAC3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E5F5E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F6FCF4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0081CA81"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003DA65A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002F974E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="0095D391"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D2EDCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E9F7E5"/>
       </patternFill>
     </fill>
   </fills>
@@ -142,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -153,6 +148,9 @@
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -168,10 +166,10 @@
     <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -190,12 +188,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="16" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -533,13 +525,13 @@
         <v>-4</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-12.9743</v>
+        <v>-5.6099</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>1.3727</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>3.4134</v>
+        <v>0.9441000000000001</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>2.3021</v>
       </c>
     </row>
     <row r="3">
@@ -550,13 +542,13 @@
         <v>-3</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-6.204</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>1.2395</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>2.6942</v>
+        <v>-1.9516</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>0.7934</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>1.6748</v>
       </c>
     </row>
     <row r="4">
@@ -567,13 +559,13 @@
         <v>-2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-3.2452</v>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>1.1736</v>
-      </c>
-      <c r="E4" s="7" t="n">
-        <v>2.537</v>
+        <v>-0.5241</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>0.7032</v>
+      </c>
+      <c r="E4" s="8" t="n">
+        <v>1.425</v>
       </c>
     </row>
     <row r="5">
@@ -584,13 +576,13 @@
         <v>-1</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-1.1614</v>
-      </c>
-      <c r="D5" s="8" t="n">
-        <v>1.0078</v>
-      </c>
-      <c r="E5" s="8" t="n">
-        <v>2.1834</v>
+        <v>0.6042</v>
+      </c>
+      <c r="D5" s="9" t="n">
+        <v>0.4312</v>
+      </c>
+      <c r="E5" s="9" t="n">
+        <v>0.9329</v>
       </c>
     </row>
     <row r="6">
@@ -601,13 +593,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-1.0167</v>
-      </c>
-      <c r="D6" s="9" t="n">
-        <v>1.0774</v>
-      </c>
-      <c r="E6" s="10" t="n">
-        <v>2.3707</v>
+        <v>0.3623</v>
+      </c>
+      <c r="D6" s="10" t="n">
+        <v>0.6058</v>
+      </c>
+      <c r="E6" s="11" t="n">
+        <v>1.3436</v>
       </c>
     </row>
     <row r="7">
@@ -618,13 +610,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-1.2619</v>
-      </c>
-      <c r="D7" s="11" t="n">
-        <v>1.1244</v>
-      </c>
-      <c r="E7" s="12" t="n">
-        <v>2.8553</v>
+        <v>0.078</v>
+      </c>
+      <c r="D7" s="12" t="n">
+        <v>0.7179</v>
+      </c>
+      <c r="E7" s="13" t="n">
+        <v>1.7524</v>
       </c>
     </row>
     <row r="8">
@@ -635,13 +627,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-1.3815</v>
-      </c>
-      <c r="D8" s="13" t="n">
-        <v>1.1626</v>
-      </c>
-      <c r="E8" s="14" t="n">
-        <v>2.9188</v>
+        <v>-0.1861</v>
+      </c>
+      <c r="D8" s="14" t="n">
+        <v>0.8205</v>
+      </c>
+      <c r="E8" s="15" t="n">
+        <v>2.0325</v>
       </c>
     </row>
     <row r="9">
@@ -652,13 +644,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-1.3579</v>
-      </c>
-      <c r="D9" s="15" t="n">
-        <v>1.1655</v>
-      </c>
-      <c r="E9" s="16" t="n">
-        <v>2.8769</v>
+        <v>-0.3443</v>
+      </c>
+      <c r="D9" s="16" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E9" s="17" t="n">
+        <v>2.1757</v>
       </c>
     </row>
     <row r="10">
@@ -669,13 +661,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-1.4435</v>
-      </c>
-      <c r="D10" s="17" t="n">
-        <v>1.1953</v>
-      </c>
-      <c r="E10" s="18" t="n">
-        <v>2.9102</v>
+        <v>-0.5181</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0.9421</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>2.314</v>
       </c>
     </row>
   </sheetData>

--- a/results/model2/model2_df_results.xlsx
+++ b/results/model2/model2_df_results.xlsx
@@ -44,62 +44,62 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="005DB96B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002F974E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00258D47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000441B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0078C679"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C3E7BC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E8F6E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00F7FCF5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BAE3B3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007FC97F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000441B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="0039A257"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="008ACE88"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CAEAC3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E5F5E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F6FCF4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0081CA81"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003DA65A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002F974E"/>
+        <fgColor rgb="0000692A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00005A24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001F8742"/>
       </patternFill>
     </fill>
     <fill>
@@ -109,12 +109,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D2EDCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E9F7E5"/>
+        <fgColor rgb="00D1EDCB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ECF8E8"/>
       </patternFill>
     </fill>
   </fills>
@@ -154,40 +154,40 @@
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="9" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -525,13 +525,13 @@
         <v>-4</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-5.6099</v>
+        <v>-3.085</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.9441000000000001</v>
+        <v>0.7422</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.3021</v>
+        <v>1.6247</v>
       </c>
     </row>
     <row r="3">
@@ -542,13 +542,13 @@
         <v>-3</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-1.9516</v>
+        <v>-0.9421</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>0.7934</v>
+        <v>0.6435999999999999</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>1.6748</v>
+        <v>1.1693</v>
       </c>
     </row>
     <row r="4">
@@ -559,13 +559,13 @@
         <v>-2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-0.5241</v>
+        <v>-0.1714</v>
       </c>
       <c r="D4" s="7" t="n">
-        <v>0.7032</v>
+        <v>0.6165</v>
       </c>
       <c r="E4" s="8" t="n">
-        <v>1.425</v>
+        <v>1.0757</v>
       </c>
     </row>
     <row r="5">
@@ -576,13 +576,13 @@
         <v>-1</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.6042</v>
+        <v>0.591</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>0.4312</v>
+        <v>0.4384</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>0.9329</v>
+        <v>0.9429999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -593,13 +593,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.3623</v>
-      </c>
-      <c r="D6" s="10" t="n">
-        <v>0.6058</v>
-      </c>
-      <c r="E6" s="11" t="n">
-        <v>1.3436</v>
+        <v>0.2789</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.6442</v>
+      </c>
+      <c r="E6" s="10" t="n">
+        <v>1.4155</v>
       </c>
     </row>
     <row r="7">
@@ -610,13 +610,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.078</v>
-      </c>
-      <c r="D7" s="12" t="n">
-        <v>0.7179</v>
-      </c>
-      <c r="E7" s="13" t="n">
-        <v>1.7524</v>
+        <v>-0.1105</v>
+      </c>
+      <c r="D7" s="11" t="n">
+        <v>0.7877999999999999</v>
+      </c>
+      <c r="E7" s="12" t="n">
+        <v>2.1219</v>
       </c>
     </row>
     <row r="8">
@@ -627,13 +627,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-0.1861</v>
-      </c>
-      <c r="D8" s="14" t="n">
-        <v>0.8205</v>
-      </c>
-      <c r="E8" s="15" t="n">
-        <v>2.0325</v>
+        <v>-0.5682</v>
+      </c>
+      <c r="D8" s="13" t="n">
+        <v>0.9434</v>
+      </c>
+      <c r="E8" s="14" t="n">
+        <v>2.5264</v>
       </c>
     </row>
     <row r="9">
@@ -644,13 +644,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-0.3443</v>
-      </c>
-      <c r="D9" s="16" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="E9" s="17" t="n">
-        <v>2.1757</v>
+        <v>-0.9192</v>
+      </c>
+      <c r="D9" s="15" t="n">
+        <v>1.0515</v>
+      </c>
+      <c r="E9" s="16" t="n">
+        <v>2.789</v>
       </c>
     </row>
     <row r="10">
@@ -661,13 +661,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-0.5181</v>
-      </c>
-      <c r="D10" s="3" t="n">
-        <v>0.9421</v>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>2.314</v>
+        <v>-1.1622</v>
+      </c>
+      <c r="D10" s="17" t="n">
+        <v>1.1244</v>
+      </c>
+      <c r="E10" s="17" t="n">
+        <v>2.9401</v>
       </c>
     </row>
   </sheetData>

--- a/results/model2/model2_df_results.xlsx
+++ b/results/model2/model2_df_results.xlsx
@@ -35,7 +35,7 @@
       <color rgb="00F1F1F1"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill/>
     </fill>
@@ -44,17 +44,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="005DB96B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002F974E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00258D47"/>
+        <fgColor rgb="00F7FCF5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B1E0AB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005AB769"/>
       </patternFill>
     </fill>
     <fill>
@@ -64,57 +64,62 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="001C8540"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0045AD5F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="0078C679"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C3E7BC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E8F6E3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F7FCF5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0039A257"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000692A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00005A24"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001F8742"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0095D391"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D1EDCB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ECF8E8"/>
+        <fgColor rgb="0090D18D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B5E1AE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006ABF71"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002D954D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00117B38"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007CC87C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009CD797"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A7DBA0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BCE4B5"/>
       </patternFill>
     </fill>
   </fills>
@@ -137,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -148,46 +153,49 @@
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="10" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -525,13 +533,13 @@
         <v>-4</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-3.085</v>
+        <v>-9.8811</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.7422</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>1.6247</v>
+        <v>1.2113</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>2.9993</v>
       </c>
     </row>
     <row r="3">
@@ -542,13 +550,13 @@
         <v>-3</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-0.9421</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>0.6435999999999999</v>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>1.1693</v>
+        <v>-4.4112</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>1.0743</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>2.3165</v>
       </c>
     </row>
     <row r="4">
@@ -559,13 +567,13 @@
         <v>-2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-0.1714</v>
-      </c>
-      <c r="D4" s="7" t="n">
-        <v>0.6165</v>
-      </c>
-      <c r="E4" s="8" t="n">
-        <v>1.0757</v>
+        <v>-1.9079</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>0.9713000000000001</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>2.0788</v>
       </c>
     </row>
     <row r="5">
@@ -576,13 +584,13 @@
         <v>-1</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.591</v>
-      </c>
-      <c r="D5" s="9" t="n">
-        <v>0.4384</v>
-      </c>
-      <c r="E5" s="9" t="n">
-        <v>0.9429999999999999</v>
+        <v>-0.3126</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>0.7853</v>
+      </c>
+      <c r="E5" s="8" t="n">
+        <v>1.6991</v>
       </c>
     </row>
     <row r="6">
@@ -593,13 +601,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.2789</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>0.6442</v>
+        <v>-0.3461</v>
+      </c>
+      <c r="D6" s="9" t="n">
+        <v>0.8802</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>1.4155</v>
+        <v>1.942</v>
       </c>
     </row>
     <row r="7">
@@ -610,13 +618,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-0.1105</v>
+        <v>-0.6104000000000001</v>
       </c>
       <c r="D7" s="11" t="n">
-        <v>0.7877999999999999</v>
+        <v>0.9487</v>
       </c>
       <c r="E7" s="12" t="n">
-        <v>2.1219</v>
+        <v>2.3774</v>
       </c>
     </row>
     <row r="8">
@@ -627,13 +635,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-0.5682</v>
+        <v>-0.7715</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>0.9434</v>
+        <v>1.0027</v>
       </c>
       <c r="E8" s="14" t="n">
-        <v>2.5264</v>
+        <v>2.4963</v>
       </c>
     </row>
     <row r="9">
@@ -644,13 +652,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-0.9192</v>
+        <v>-0.842</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>1.0515</v>
+        <v>1.0302</v>
       </c>
       <c r="E9" s="16" t="n">
-        <v>2.789</v>
+        <v>2.5348</v>
       </c>
     </row>
     <row r="10">
@@ -661,13 +669,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-1.1622</v>
+        <v>-0.9889</v>
       </c>
       <c r="D10" s="17" t="n">
-        <v>1.1244</v>
-      </c>
-      <c r="E10" s="17" t="n">
-        <v>2.9401</v>
+        <v>1.0784</v>
+      </c>
+      <c r="E10" s="18" t="n">
+        <v>2.6277</v>
       </c>
     </row>
   </sheetData>

--- a/results/model2/model2_df_results.xlsx
+++ b/results/model2/model2_df_results.xlsx
@@ -44,82 +44,82 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00E7F6E2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B4E1AD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006ABF71"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000441B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00319A50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007CC87C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BCE4B5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DEF2D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00F7FCF5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00E8F6E4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00B1E0AB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="005AB769"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000441B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001C8540"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0045AD5F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0078C679"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0090D18D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B5E1AE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006ABF71"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002D954D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00117B38"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007CC87C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009CD797"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A7DBA0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BCE4B5"/>
+        <fgColor rgb="0063BC6E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00339C52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0081CA81"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C0E6B9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E0F3DB"/>
       </patternFill>
     </fill>
   </fills>
@@ -153,16 +153,19 @@
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -171,31 +174,28 @@
     <xf applyAlignment="1" borderId="0" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="9" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="10" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -533,13 +533,13 @@
         <v>-4</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-9.8811</v>
+        <v>0.7359</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>1.2113</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>2.9993</v>
+        <v>1.1078</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>1.9784</v>
       </c>
     </row>
     <row r="3">
@@ -550,13 +550,13 @@
         <v>-3</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-4.4112</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>1.0743</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>2.3165</v>
+        <v>0.8079</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>0.9435</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>1.6507</v>
       </c>
     </row>
     <row r="4">
@@ -567,13 +567,13 @@
         <v>-2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-1.9079</v>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>0.9713000000000001</v>
-      </c>
-      <c r="E4" s="7" t="n">
-        <v>2.0788</v>
+        <v>0.8733</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>0.7659</v>
+      </c>
+      <c r="E4" s="8" t="n">
+        <v>1.3273</v>
       </c>
     </row>
     <row r="5">
@@ -584,13 +584,13 @@
         <v>-1</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-0.3126</v>
-      </c>
-      <c r="D5" s="8" t="n">
-        <v>0.7853</v>
-      </c>
-      <c r="E5" s="8" t="n">
-        <v>1.6991</v>
+        <v>0.9697</v>
+      </c>
+      <c r="D5" s="9" t="n">
+        <v>0.3746</v>
+      </c>
+      <c r="E5" s="9" t="n">
+        <v>0.6389</v>
       </c>
     </row>
     <row r="6">
@@ -601,13 +601,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-0.3461</v>
-      </c>
-      <c r="D6" s="9" t="n">
-        <v>0.8802</v>
-      </c>
-      <c r="E6" s="10" t="n">
-        <v>1.942</v>
+        <v>0.9143</v>
+      </c>
+      <c r="D6" s="10" t="n">
+        <v>0.6304999999999999</v>
+      </c>
+      <c r="E6" s="11" t="n">
+        <v>1.1143</v>
       </c>
     </row>
     <row r="7">
@@ -618,13 +618,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-0.6104000000000001</v>
-      </c>
-      <c r="D7" s="11" t="n">
-        <v>0.9487</v>
-      </c>
-      <c r="E7" s="12" t="n">
-        <v>2.3774</v>
+        <v>0.8554</v>
+      </c>
+      <c r="D7" s="12" t="n">
+        <v>0.8077</v>
+      </c>
+      <c r="E7" s="13" t="n">
+        <v>1.4436</v>
       </c>
     </row>
     <row r="8">
@@ -635,13 +635,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-0.7715</v>
-      </c>
-      <c r="D8" s="13" t="n">
-        <v>1.0027</v>
-      </c>
-      <c r="E8" s="14" t="n">
-        <v>2.4963</v>
+        <v>0.79</v>
+      </c>
+      <c r="D8" s="14" t="n">
+        <v>0.9639</v>
+      </c>
+      <c r="E8" s="15" t="n">
+        <v>1.7192</v>
       </c>
     </row>
     <row r="9">
@@ -652,13 +652,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-0.842</v>
-      </c>
-      <c r="D9" s="15" t="n">
-        <v>1.0302</v>
-      </c>
-      <c r="E9" s="16" t="n">
-        <v>2.5348</v>
+        <v>0.7324000000000001</v>
+      </c>
+      <c r="D9" s="16" t="n">
+        <v>1.0759</v>
+      </c>
+      <c r="E9" s="17" t="n">
+        <v>1.9135</v>
       </c>
     </row>
     <row r="10">
@@ -669,13 +669,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-0.9889</v>
-      </c>
-      <c r="D10" s="17" t="n">
-        <v>1.0784</v>
+        <v>0.657</v>
+      </c>
+      <c r="D10" s="18" t="n">
+        <v>1.2022</v>
       </c>
       <c r="E10" s="18" t="n">
-        <v>2.6277</v>
+        <v>2.1327</v>
       </c>
     </row>
   </sheetData>

--- a/results/model2/model2_df_results.xlsx
+++ b/results/model2/model2_df_results.xlsx
@@ -35,7 +35,7 @@
       <color rgb="00F1F1F1"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="16">
     <fill>
       <patternFill/>
     </fill>
@@ -44,12 +44,57 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E7F6E2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B4E1AD"/>
+        <fgColor rgb="00C9EAC2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0099D595"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006BC072"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000441B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003BA458"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008ACE88"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C6E8BF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E5F5E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F7FCF5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CCEBC6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0098D594"/>
       </patternFill>
     </fill>
     <fill>
@@ -59,67 +104,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000441B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00319A50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007CC87C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BCE4B5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DEF2D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F7FCF5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E8F6E4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B1E0AB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0063BC6E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00339C52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0081CA81"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C0E6B9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E0F3DB"/>
+        <fgColor rgb="008DD08A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C7E9C0"/>
       </patternFill>
     </fill>
   </fills>
@@ -142,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -174,25 +164,19 @@
     <xf applyAlignment="1" borderId="0" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="14" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="15" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="9" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="10" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -533,13 +517,13 @@
         <v>-4</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.7359</v>
+        <v>0.7654</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>1.1078</v>
+        <v>1.0442</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.9784</v>
+        <v>1.8833</v>
       </c>
     </row>
     <row r="3">
@@ -550,13 +534,13 @@
         <v>-3</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.8079</v>
+        <v>0.83</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>0.9435</v>
+        <v>0.8875</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>1.6507</v>
+        <v>1.5733</v>
       </c>
     </row>
     <row r="4">
@@ -567,13 +551,13 @@
         <v>-2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.8733</v>
+        <v>0.8753</v>
       </c>
       <c r="D4" s="7" t="n">
-        <v>0.7659</v>
+        <v>0.7599</v>
       </c>
       <c r="E4" s="8" t="n">
-        <v>1.3273</v>
+        <v>1.3409</v>
       </c>
     </row>
     <row r="5">
@@ -584,13 +568,13 @@
         <v>-1</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.9697</v>
+        <v>0.9844000000000001</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>0.3746</v>
+        <v>0.269</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>0.6389</v>
+        <v>0.4812</v>
       </c>
     </row>
     <row r="6">
@@ -601,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.9143</v>
+        <v>0.9156</v>
       </c>
       <c r="D6" s="10" t="n">
-        <v>0.6304999999999999</v>
-      </c>
-      <c r="E6" s="11" t="n">
-        <v>1.1143</v>
+        <v>0.626</v>
+      </c>
+      <c r="E6" s="10" t="n">
+        <v>1.1167</v>
       </c>
     </row>
     <row r="7">
@@ -618,13 +602,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.8554</v>
-      </c>
-      <c r="D7" s="12" t="n">
-        <v>0.8077</v>
-      </c>
-      <c r="E7" s="13" t="n">
-        <v>1.4436</v>
+        <v>0.8415</v>
+      </c>
+      <c r="D7" s="11" t="n">
+        <v>0.8454</v>
+      </c>
+      <c r="E7" s="12" t="n">
+        <v>1.5119</v>
       </c>
     </row>
     <row r="8">
@@ -635,13 +619,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="D8" s="14" t="n">
-        <v>0.9639</v>
-      </c>
-      <c r="E8" s="15" t="n">
-        <v>1.7192</v>
+        <v>0.7594</v>
+      </c>
+      <c r="D8" s="13" t="n">
+        <v>1.0317</v>
+      </c>
+      <c r="E8" s="14" t="n">
+        <v>1.843</v>
       </c>
     </row>
     <row r="9">
@@ -652,13 +636,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.7324000000000001</v>
-      </c>
-      <c r="D9" s="16" t="n">
-        <v>1.0759</v>
-      </c>
-      <c r="E9" s="17" t="n">
-        <v>1.9135</v>
+        <v>0.6879</v>
+      </c>
+      <c r="D9" s="15" t="n">
+        <v>1.1618</v>
+      </c>
+      <c r="E9" s="15" t="n">
+        <v>2.0706</v>
       </c>
     </row>
     <row r="10">
@@ -669,13 +653,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0.657</v>
-      </c>
-      <c r="D10" s="18" t="n">
-        <v>1.2022</v>
-      </c>
-      <c r="E10" s="18" t="n">
-        <v>2.1327</v>
+        <v>0.6027</v>
+      </c>
+      <c r="D10" s="16" t="n">
+        <v>1.2939</v>
+      </c>
+      <c r="E10" s="16" t="n">
+        <v>2.2989</v>
       </c>
     </row>
   </sheetData>

--- a/results/model2/model2_df_results.xlsx
+++ b/results/model2/model2_df_results.xlsx
@@ -35,7 +35,7 @@
       <color rgb="00F1F1F1"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill/>
     </fill>
@@ -44,72 +44,82 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00D0EDCA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ACDEA6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007FC97F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000441B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0039A257"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008BCF89"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C8E9C1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E4F5DF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F7FCF5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D3EECD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ABDDA5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007CC87C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003AA357"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008DD08A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00C9EAC2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0099D595"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006BC072"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000441B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003BA458"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008ACE88"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C6E8BF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00E5F5E0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F7FCF5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CCEBC6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0098D594"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006ABF71"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008DD08A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C7E9C0"/>
       </patternFill>
     </fill>
   </fills>
@@ -132,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -164,19 +174,25 @@
     <xf applyAlignment="1" borderId="0" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="9" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="10" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -517,13 +533,13 @@
         <v>-4</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.7654</v>
+        <v>0.7588</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>1.0442</v>
+        <v>1.0587</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.8833</v>
+        <v>1.905</v>
       </c>
     </row>
     <row r="3">
@@ -534,13 +550,13 @@
         <v>-3</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.83</v>
+        <v>0.8117</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>0.8875</v>
+        <v>0.9339</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>1.5733</v>
+        <v>1.6518</v>
       </c>
     </row>
     <row r="4">
@@ -551,13 +567,13 @@
         <v>-2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.8753</v>
+        <v>0.8611</v>
       </c>
       <c r="D4" s="7" t="n">
-        <v>0.7599</v>
+        <v>0.8018</v>
       </c>
       <c r="E4" s="8" t="n">
-        <v>1.3409</v>
+        <v>1.4101</v>
       </c>
     </row>
     <row r="5">
@@ -568,13 +584,13 @@
         <v>-1</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.9844000000000001</v>
+        <v>0.9843</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>0.269</v>
+        <v>0.2698</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>0.4812</v>
+        <v>0.477</v>
       </c>
     </row>
     <row r="6">
@@ -585,13 +601,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.9156</v>
+        <v>0.9187</v>
       </c>
       <c r="D6" s="10" t="n">
-        <v>0.626</v>
-      </c>
-      <c r="E6" s="10" t="n">
-        <v>1.1167</v>
+        <v>0.6142</v>
+      </c>
+      <c r="E6" s="11" t="n">
+        <v>1.0964</v>
       </c>
     </row>
     <row r="7">
@@ -602,13 +618,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.8415</v>
-      </c>
-      <c r="D7" s="11" t="n">
-        <v>0.8454</v>
-      </c>
-      <c r="E7" s="12" t="n">
-        <v>1.5119</v>
+        <v>0.8452</v>
+      </c>
+      <c r="D7" s="12" t="n">
+        <v>0.8355</v>
+      </c>
+      <c r="E7" s="13" t="n">
+        <v>1.4953</v>
       </c>
     </row>
     <row r="8">
@@ -619,13 +635,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.7594</v>
-      </c>
-      <c r="D8" s="13" t="n">
-        <v>1.0317</v>
-      </c>
-      <c r="E8" s="14" t="n">
-        <v>1.843</v>
+        <v>0.7627</v>
+      </c>
+      <c r="D8" s="14" t="n">
+        <v>1.0244</v>
+      </c>
+      <c r="E8" s="15" t="n">
+        <v>1.8301</v>
       </c>
     </row>
     <row r="9">
@@ -636,13 +652,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.6879</v>
-      </c>
-      <c r="D9" s="15" t="n">
-        <v>1.1618</v>
-      </c>
-      <c r="E9" s="15" t="n">
-        <v>2.0706</v>
+        <v>0.6972</v>
+      </c>
+      <c r="D9" s="16" t="n">
+        <v>1.1444</v>
+      </c>
+      <c r="E9" s="17" t="n">
+        <v>2.0386</v>
       </c>
     </row>
     <row r="10">
@@ -653,13 +669,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0.6027</v>
-      </c>
-      <c r="D10" s="16" t="n">
-        <v>1.2939</v>
-      </c>
-      <c r="E10" s="16" t="n">
-        <v>2.2989</v>
+        <v>0.6145</v>
+      </c>
+      <c r="D10" s="18" t="n">
+        <v>1.2745</v>
+      </c>
+      <c r="E10" s="18" t="n">
+        <v>2.263</v>
       </c>
     </row>
   </sheetData>

--- a/results/model2/model2_df_results.xlsx
+++ b/results/model2/model2_df_results.xlsx
@@ -44,17 +44,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D0EDCA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ACDEA6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007FC97F"/>
+        <fgColor rgb="00C6E8BF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0083CB82"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0042AB5D"/>
       </patternFill>
     </fill>
     <fill>
@@ -64,12 +64,27 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0039A257"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008BCF89"/>
+        <fgColor rgb="002E964D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0078C679"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B8E3B2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DEF2D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F7FCF5"/>
       </patternFill>
     </fill>
     <fill>
@@ -79,47 +94,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E4F5DF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F7FCF5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D3EECD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ABDDA5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007CC87C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003AA357"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008DD08A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C9EAC2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E5F5E0"/>
+        <fgColor rgb="0080CA80"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003FA85B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002F984F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007DC87E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BCE4B5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E0F3DB"/>
       </patternFill>
     </fill>
   </fills>
@@ -533,13 +533,13 @@
         <v>-4</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.7588</v>
+        <v>0.7789</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>1.0587</v>
+        <v>1.0137</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.905</v>
+        <v>1.8068</v>
       </c>
     </row>
     <row r="3">
@@ -550,13 +550,13 @@
         <v>-3</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.8117</v>
+        <v>0.8434</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>0.9339</v>
+        <v>0.8518</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>1.6518</v>
+        <v>1.4876</v>
       </c>
     </row>
     <row r="4">
@@ -567,13 +567,13 @@
         <v>-2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.8611</v>
+        <v>0.8881</v>
       </c>
       <c r="D4" s="7" t="n">
-        <v>0.8018</v>
+        <v>0.7199</v>
       </c>
       <c r="E4" s="8" t="n">
-        <v>1.4101</v>
+        <v>1.2464</v>
       </c>
     </row>
     <row r="5">
@@ -584,13 +584,13 @@
         <v>-1</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.9843</v>
+        <v>0.9619</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>0.2698</v>
+        <v>0.4205</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>0.477</v>
+        <v>0.7227</v>
       </c>
     </row>
     <row r="6">
@@ -601,13 +601,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.9187</v>
+        <v>0.9072</v>
       </c>
       <c r="D6" s="10" t="n">
-        <v>0.6142</v>
+        <v>0.6564</v>
       </c>
       <c r="E6" s="11" t="n">
-        <v>1.0964</v>
+        <v>1.1602</v>
       </c>
     </row>
     <row r="7">
@@ -618,13 +618,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.8452</v>
+        <v>0.8488</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>0.8355</v>
+        <v>0.8259</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>1.4953</v>
+        <v>1.476</v>
       </c>
     </row>
     <row r="8">
@@ -635,13 +635,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.7627</v>
+        <v>0.7832</v>
       </c>
       <c r="D8" s="14" t="n">
-        <v>1.0244</v>
+        <v>0.9792</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>1.8301</v>
+        <v>1.7463</v>
       </c>
     </row>
     <row r="9">
@@ -652,13 +652,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.6972</v>
+        <v>0.722</v>
       </c>
       <c r="D9" s="16" t="n">
-        <v>1.1444</v>
+        <v>1.0966</v>
       </c>
       <c r="E9" s="17" t="n">
-        <v>2.0386</v>
+        <v>1.9499</v>
       </c>
     </row>
     <row r="10">
@@ -669,13 +669,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0.6145</v>
+        <v>0.6475</v>
       </c>
       <c r="D10" s="18" t="n">
-        <v>1.2745</v>
+        <v>1.2187</v>
       </c>
       <c r="E10" s="18" t="n">
-        <v>2.263</v>
+        <v>2.1612</v>
       </c>
     </row>
   </sheetData>
